--- a/md101/Productos.xlsx
+++ b/md101/Productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchaveza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DJCA\utec\dev\data\md101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53077018-33BD-49A0-9F7F-2B3F9DC9BFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A232FC-9F16-466F-9723-02FB487556A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,11 +612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
   </cols>

--- a/md101/Productos.xlsx
+++ b/md101/Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DJCA\utec\dev\data\md101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A232FC-9F16-466F-9723-02FB487556A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA34B2-0DAE-4D8F-A7B2-41CE1A997A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Codigo del Producto</t>
   </si>
@@ -37,15 +37,9 @@
     <t>Mandarinas</t>
   </si>
   <si>
-    <t>Frutas</t>
-  </si>
-  <si>
     <t>Lechugas</t>
   </si>
   <si>
-    <t>Verduras</t>
-  </si>
-  <si>
     <t>Melones</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
   </si>
   <si>
     <t>Berenjenas</t>
-  </si>
-  <si>
-    <t>Hortalizas</t>
   </si>
   <si>
     <t>Platanos</t>
@@ -612,9 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -645,8 +634,8 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="C2" s="4">
+        <v>1</v>
       </c>
       <c r="D2" s="5">
         <v>3.9325000000000001</v>
@@ -657,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>1.6335</v>
@@ -671,10 +660,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>1.9359999999999999</v>
@@ -685,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
       </c>
       <c r="D5" s="5">
         <v>0.60499999999999998</v>
@@ -699,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
       </c>
       <c r="D6" s="5">
         <v>2.5409999999999999</v>
@@ -713,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>2.42</v>
@@ -727,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>0.96799999999999997</v>
@@ -741,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
       </c>
       <c r="D9" s="5">
         <v>3.63</v>
@@ -755,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>1.21</v>
@@ -769,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
       </c>
       <c r="D11" s="5">
         <v>0.60499999999999998</v>
@@ -783,10 +772,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>1.21</v>
@@ -797,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
       </c>
       <c r="D13" s="5">
         <v>2.42</v>
@@ -811,10 +800,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
       </c>
       <c r="D14" s="5">
         <v>0.24199999999999999</v>
@@ -825,10 +814,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
       </c>
       <c r="D15" s="5">
         <v>3.63</v>
@@ -839,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
       </c>
       <c r="D16" s="5">
         <v>2.42</v>
